--- a/app/excelTemplates/template_masjid.xlsx
+++ b/app/excelTemplates/template_masjid.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26926"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\polban\sem 5\web dev challenge\app\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90A11AA-BD22-4048-B01A-6E0DF4E2EA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FD8340-E782-4E60-B955-35D3C53C0D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A92A4DA-1AF0-45A9-8378-A9FBACE63D64}"/>
+    <workbookView xWindow="9000" yWindow="4515" windowWidth="16200" windowHeight="9270" xr2:uid="{4A92A4DA-1AF0-45A9-8378-A9FBACE63D64}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="INPUT DISINI" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,14 +44,26 @@
     <t>Nama Ketua DKM</t>
   </si>
   <si>
-    <t>No. HP</t>
+    <r>
+      <t xml:space="preserve">No. HP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contoh: 08123456789</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +76,19 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -109,11 +134,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -452,24 +482,24 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="39" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
